--- a/supplFiles/Suppl.File.2.seqsum.xlsx
+++ b/supplFiles/Suppl.File.2.seqsum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\mtDNA\Manuscript\Supplements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FD335A0-2EB2-49CE-B0E9-B73FE4D9B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499A261B-6B29-48A1-B473-97413C1133AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1425" windowWidth="24495" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Species</t>
   </si>
@@ -181,9 +181,6 @@
     <t>DD</t>
   </si>
   <si>
-    <t>Argilops tauschii</t>
-  </si>
-  <si>
     <t>SQ523</t>
   </si>
   <si>
@@ -227,16 +224,25 @@
   </si>
   <si>
     <t>ERS10201245</t>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aegilops tauschii</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="198" formatCode="0_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +272,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,8 +325,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -345,15 +361,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -629,7 +646,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -670,10 +687,10 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -687,23 +704,25 @@
         <v>10</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -747,7 +766,7 @@
       <c r="G4" s="7">
         <v>2.4152747165467801E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="10">
         <v>128</v>
       </c>
       <c r="I4" s="5">
@@ -756,7 +775,7 @@
       <c r="J4" s="7">
         <v>0.76653284785111897</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="10">
         <v>97.97</v>
       </c>
       <c r="L4" s="1">
@@ -791,7 +810,7 @@
       <c r="G5" s="7">
         <v>0.56085375658150005</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="10">
         <v>3425</v>
       </c>
       <c r="I5" s="5">
@@ -800,7 +819,7 @@
       <c r="J5" s="7">
         <v>0.72706579881528499</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="10">
         <v>2490.29</v>
       </c>
       <c r="L5" s="1">
@@ -835,7 +854,7 @@
       <c r="G6" s="7">
         <v>0.37127867847887203</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="10">
         <v>2294</v>
       </c>
       <c r="I6" s="5">
@@ -844,7 +863,7 @@
       <c r="J6" s="7">
         <v>0.74355374338990898</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="10">
         <v>1705.97</v>
       </c>
       <c r="L6" s="1">
@@ -867,10 +886,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -897,7 +916,7 @@
       <c r="G8" s="7">
         <v>0.37466863103675202</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="10">
         <v>2411</v>
       </c>
       <c r="I8" s="5">
@@ -906,7 +925,7 @@
       <c r="J8" s="7">
         <v>0.69429758718371304</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="10">
         <v>1673.77</v>
       </c>
       <c r="L8" s="1">
@@ -941,7 +960,7 @@
       <c r="G9" s="7">
         <v>0.29872527627983603</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="10">
         <v>1288</v>
       </c>
       <c r="I9" s="5">
@@ -950,7 +969,7 @@
       <c r="J9" s="7">
         <v>0.72491572387388603</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="10">
         <v>933.64</v>
       </c>
       <c r="L9" s="1">
@@ -985,7 +1004,7 @@
       <c r="G10" s="7">
         <v>0.52812021640316598</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="10">
         <v>2423</v>
       </c>
       <c r="I10" s="5">
@@ -994,7 +1013,7 @@
       <c r="J10" s="7">
         <v>0.75818377365624701</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="10">
         <v>1837.15</v>
       </c>
       <c r="L10" s="1">
@@ -1029,7 +1048,7 @@
       <c r="G11" s="7">
         <v>0.25947861291407498</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="10">
         <v>1371</v>
       </c>
       <c r="I11" s="5">
@@ -1038,7 +1057,7 @@
       <c r="J11" s="7">
         <v>0.69551063324529305</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="10">
         <v>953.36</v>
       </c>
       <c r="L11" s="1">
@@ -1073,7 +1092,7 @@
       <c r="G12" s="7">
         <v>0.58624869751320197</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="10">
         <v>2589</v>
       </c>
       <c r="I12" s="5">
@@ -1082,7 +1101,7 @@
       <c r="J12" s="7">
         <v>0.76528784170503805</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="10">
         <v>1980.99</v>
       </c>
       <c r="L12" s="1">
@@ -1105,10 +1124,10 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="1"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1135,7 +1154,7 @@
       <c r="G14" s="7">
         <v>0.19322351365135701</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="10">
         <v>1406</v>
       </c>
       <c r="I14" s="5">
@@ -1144,7 +1163,7 @@
       <c r="J14" s="7">
         <v>0.73345750038689095</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="10">
         <v>1031.1600000000001</v>
       </c>
       <c r="L14" s="1">
@@ -1179,7 +1198,7 @@
       <c r="G15" s="7">
         <v>0.25275156750926697</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="10">
         <v>1763</v>
       </c>
       <c r="I15" s="5">
@@ -1188,7 +1207,7 @@
       <c r="J15" s="7">
         <v>0.75451062061082597</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="10">
         <v>1330.35</v>
       </c>
       <c r="L15" s="1">
@@ -1223,7 +1242,7 @@
       <c r="G16" s="7">
         <v>0.116223054471067</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="10">
         <v>780</v>
       </c>
       <c r="I16" s="5">
@@ -1232,7 +1251,7 @@
       <c r="J16" s="7">
         <v>0.75526406458609896</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="10">
         <v>589.04999999999995</v>
       </c>
       <c r="L16" s="1">
@@ -1267,7 +1286,7 @@
       <c r="G17" s="7">
         <v>0.11864557118959</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="10">
         <v>983</v>
       </c>
       <c r="I17" s="5">
@@ -1276,7 +1295,7 @@
       <c r="J17" s="7">
         <v>0.70467374317896503</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="10">
         <v>692.94</v>
       </c>
       <c r="L17" s="1">
@@ -1311,7 +1330,7 @@
       <c r="G18" s="7">
         <v>0.212668261463141</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="10">
         <v>1675</v>
       </c>
       <c r="I18" s="5">
@@ -1320,7 +1339,7 @@
       <c r="J18" s="7">
         <v>0.70150511427128703</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="10">
         <v>1175.0899999999999</v>
       </c>
       <c r="L18" s="1">
@@ -1343,20 +1362,20 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="1"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C20" s="5">
         <v>14898220</v>
@@ -1373,7 +1392,7 @@
       <c r="G20" s="7">
         <v>0.43014836671763501</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="10">
         <v>4627</v>
       </c>
       <c r="I20" s="5">
@@ -1382,25 +1401,25 @@
       <c r="J20" s="7">
         <v>0.782070689535449</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="10">
         <v>3618.7</v>
       </c>
       <c r="L20" s="1">
         <v>362</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="5">
         <v>9359461</v>
@@ -1417,7 +1436,7 @@
       <c r="G21" s="7">
         <v>5.40857000205461E-2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="10">
         <v>365</v>
       </c>
       <c r="I21" s="5">
@@ -1426,25 +1445,25 @@
       <c r="J21" s="7">
         <v>0.75038175629626302</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="10">
         <v>274.26</v>
       </c>
       <c r="L21" s="1">
         <v>370</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="5">
         <v>8114126</v>
@@ -1461,7 +1480,7 @@
       <c r="G22" s="7">
         <v>0.32504277108834601</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="10">
         <v>1904</v>
       </c>
       <c r="I22" s="5">
@@ -1470,25 +1489,25 @@
       <c r="J22" s="7">
         <v>0.74498547454006503</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="10">
         <v>1418.68</v>
       </c>
       <c r="L22" s="1">
         <v>329</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5">
         <v>8441761</v>
@@ -1505,7 +1524,7 @@
       <c r="G23" s="7">
         <v>0.33050118334314399</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="10">
         <v>2014</v>
       </c>
       <c r="I23" s="5">
@@ -1514,25 +1533,25 @@
       <c r="J23" s="7">
         <v>0.73548500866662903</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="10">
         <v>1481.61</v>
       </c>
       <c r="L23" s="1">
         <v>380</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="5">
         <v>7833196</v>
@@ -1549,7 +1568,7 @@
       <c r="G24" s="7">
         <v>0.339671699776183</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="10">
         <v>1921</v>
       </c>
       <c r="I24" s="5">
@@ -1558,22 +1577,22 @@
       <c r="J24" s="7">
         <v>0.74272141134995695</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="10">
         <v>1426.85</v>
       </c>
       <c r="L24" s="1">
         <v>316</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1581,20 +1600,20 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="1"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C26" s="5">
         <v>7161296</v>
@@ -1611,7 +1630,7 @@
       <c r="G26" s="7">
         <v>0.32296039711247798</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="10">
         <v>1642</v>
       </c>
       <c r="I26" s="5">
@@ -1620,17 +1639,17 @@
       <c r="J26" s="7">
         <v>0.76166187092352799</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="10">
         <v>1251.01</v>
       </c>
       <c r="L26" s="1">
         <v>335</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
